--- a/sharedata/exceldata/excel/all/D-单位表.xlsx
+++ b/sharedata/exceldata/excel/all/D-单位表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\sharedata\exceldata\excel\all\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17340" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#id分配" sheetId="5" r:id="rId1"/>
@@ -31,7 +26,7 @@
     <definedName name="单位类型">#REF!</definedName>
     <definedName name="单位子类型">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1556,6 +1551,9 @@
   </si>
   <si>
     <t>黄成年女</t>
+  </si>
+  <si>
+    <t>秘书</t>
   </si>
   <si>
     <t>Unit/children/huangchengniannv/huangnv_chengnian1_pb</t>
@@ -2546,16 +2544,18 @@
   <si>
     <t>Unit/Dialogue/lover_016/lover_016_pb</t>
   </si>
-  <si>
-    <t>秘书</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -2612,11 +2612,155 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2663,7 +2807,7 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="9" tint="-0.24994659260841701"/>
+      <color theme="9" tint="-0.249946592608417"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2683,7 +2827,7 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <color theme="0" tint="-0.24994659260841701"/>
+      <color theme="0" tint="-0.249946592608417"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2705,20 +2849,8 @@
       <name val="黑体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2727,7 +2859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79992065187536243"/>
+        <fgColor theme="7" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2751,7 +2883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2763,13 +2895,199 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79992065187536243"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59996337778862885"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599963377788629"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2781,7 +3099,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <fgColor theme="0" tint="-0.249946592608417"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2799,12 +3117,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59996337778862885"/>
+        <fgColor theme="9" tint="0.599963377788629"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2942,102 +3260,344 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyFill="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4">
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="4">
+    <xf numFmtId="0" fontId="40" fillId="45" borderId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3053,10 +3613,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="48" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="48" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3065,16 +3625,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3095,7 +3655,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3104,7 +3664,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3114,28 +3674,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="8" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="48" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="48" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3148,102 +3711,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="3">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="27">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="33">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="24">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="72">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="72" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="72" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="24" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="24" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="31">
-    <cellStyle name="1表头" xfId="8"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="1"/>
-    <cellStyle name="2填表文本" xfId="6"/>
-    <cellStyle name="3备注" xfId="5"/>
-    <cellStyle name="4分类标题" xfId="12"/>
-    <cellStyle name="备注" xfId="9"/>
-    <cellStyle name="标题2" xfId="2"/>
-    <cellStyle name="表头" xfId="3"/>
-    <cellStyle name="表头2" xfId="4"/>
+  <cellStyles count="79">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="13"/>
-    <cellStyle name="常规 3" xfId="14"/>
-    <cellStyle name="常规 3 2" xfId="7"/>
-    <cellStyle name="常规 4" xfId="15"/>
-    <cellStyle name="常规 4 2" xfId="16"/>
-    <cellStyle name="常规 5" xfId="17"/>
-    <cellStyle name="超链接 2" xfId="18"/>
-    <cellStyle name="程序实现" xfId="19"/>
-    <cellStyle name="过渡数据" xfId="20"/>
-    <cellStyle name="举例说明" xfId="21"/>
-    <cellStyle name="列" xfId="22"/>
-    <cellStyle name="美术需求" xfId="23"/>
-    <cellStyle name="判断逻辑" xfId="10"/>
-    <cellStyle name="普通数值" xfId="24"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="25"/>
-    <cellStyle name="强调文字颜色 2 2 2" xfId="26"/>
-    <cellStyle name="删除内容" xfId="27"/>
-    <cellStyle name="输入框" xfId="28"/>
-    <cellStyle name="特别注意" xfId="29"/>
-    <cellStyle name="提示信息" xfId="30"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="12"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题2" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="表头" xfId="27"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="表头2" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="3备注" xfId="38"/>
+    <cellStyle name="强调文字颜色 1" xfId="39" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
+    <cellStyle name="2填表文本" xfId="44"/>
+    <cellStyle name="强调文字颜色 3" xfId="45" builtinId="37"/>
+    <cellStyle name="常规 3 2" xfId="46"/>
+    <cellStyle name="强调文字颜色 4" xfId="47" builtinId="41"/>
+    <cellStyle name="1表头" xfId="48"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="50" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="52" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="53" builtinId="48"/>
+    <cellStyle name="备注" xfId="54"/>
+    <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
+    <cellStyle name="判断逻辑" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="57" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="58" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="59"/>
+    <cellStyle name="4分类标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="61"/>
+    <cellStyle name="常规 3" xfId="62"/>
+    <cellStyle name="常规 4" xfId="63"/>
+    <cellStyle name="常规 4 2" xfId="64"/>
+    <cellStyle name="常规 5" xfId="65"/>
+    <cellStyle name="超链接 2" xfId="66"/>
+    <cellStyle name="程序实现" xfId="67"/>
+    <cellStyle name="过渡数据" xfId="68"/>
+    <cellStyle name="举例说明" xfId="69"/>
+    <cellStyle name="列" xfId="70"/>
+    <cellStyle name="美术需求" xfId="71"/>
+    <cellStyle name="普通数值" xfId="72"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="73"/>
+    <cellStyle name="强调文字颜色 2 2 2" xfId="74"/>
+    <cellStyle name="删除内容" xfId="75"/>
+    <cellStyle name="输入框" xfId="76"/>
+    <cellStyle name="特别注意" xfId="77"/>
+    <cellStyle name="提示信息" xfId="78"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF9C0006"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -3256,62 +3824,26 @@
     </dxf>
     <dxf>
       <font>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="10"/>
-        <color rgb="FF00B050"/>
+        <color rgb="FF9C0006"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3596,180 +4128,181 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C5:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="19.2" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="3:5">
+      <c r="C5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C6" s="39" t="s">
+    <row r="6" spans="3:5">
+      <c r="C6" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C7" s="39" t="s">
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
+    <row r="8" spans="3:5">
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="43"/>
     </row>
-    <row r="9" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="3:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
+    <row r="9" spans="3:5">
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E7:E8"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="C7">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("//",C7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C20">
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("//",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D20">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("//",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:D6 C8:D17 D7">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("//",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E12:E20">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("//",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E7 E9:E11">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>NOT(ISERROR(SEARCH("//",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.2" customWidth="1"/>
+    <col min="2" max="2" width="8.2" customWidth="1"/>
     <col min="3" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="56.19921875" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" customWidth="1"/>
+    <col min="5" max="5" width="56.2" customWidth="1"/>
+    <col min="6" max="6" width="13.2" customWidth="1"/>
+    <col min="7" max="7" width="10.7" customWidth="1"/>
+    <col min="8" max="8" width="12.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -3781,7 +4314,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -3793,7 +4326,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -3813,13 +4346,13 @@
         <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -3839,13 +4372,13 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -3865,13 +4398,13 @@
         <v>30</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -3885,394 +4418,395 @@
       <c r="G6" s="6"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7">
       <c r="B7">
         <v>8001</v>
       </c>
       <c r="C7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G7" s="41" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G7" s="44" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8">
         <v>8002</v>
       </c>
       <c r="C8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D8" t="s">
+        <v>574</v>
+      </c>
+      <c r="E8" t="s">
+        <v>575</v>
+      </c>
+      <c r="F8" t="s">
+        <v>576</v>
+      </c>
+      <c r="G8" s="44" t="s">
         <v>573</v>
       </c>
-      <c r="D8" t="s">
-        <v>573</v>
-      </c>
-      <c r="E8" t="s">
-        <v>574</v>
-      </c>
-      <c r="F8" t="s">
-        <v>575</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9">
         <v>8003</v>
       </c>
       <c r="C9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F9" t="s">
-        <v>578</v>
-      </c>
-      <c r="G9" s="41" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" s="44" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10">
         <v>8004</v>
       </c>
       <c r="C10" t="s">
+        <v>581</v>
+      </c>
+      <c r="D10" t="s">
+        <v>581</v>
+      </c>
+      <c r="E10" t="s">
+        <v>582</v>
+      </c>
+      <c r="F10" t="s">
+        <v>583</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="D10" t="s">
-        <v>580</v>
-      </c>
-      <c r="E10" t="s">
-        <v>581</v>
-      </c>
-      <c r="F10" t="s">
-        <v>582</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11">
         <v>8005</v>
       </c>
       <c r="C11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D11" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E11" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F11" t="s">
-        <v>585</v>
-      </c>
-      <c r="G11" s="41" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11" s="44" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12">
         <v>8006</v>
       </c>
       <c r="C12" t="s">
+        <v>588</v>
+      </c>
+      <c r="D12" t="s">
+        <v>588</v>
+      </c>
+      <c r="E12" t="s">
+        <v>589</v>
+      </c>
+      <c r="F12" t="s">
+        <v>590</v>
+      </c>
+      <c r="G12" s="44" t="s">
         <v>587</v>
       </c>
-      <c r="D12" t="s">
-        <v>587</v>
-      </c>
-      <c r="E12" t="s">
-        <v>588</v>
-      </c>
-      <c r="F12" t="s">
-        <v>589</v>
-      </c>
-      <c r="G12" s="41" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13">
         <v>8007</v>
       </c>
       <c r="C13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E13" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F13" t="s">
-        <v>592</v>
-      </c>
-      <c r="G13" s="41" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>593</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14">
         <v>8008</v>
       </c>
       <c r="C14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E14" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F14" t="s">
-        <v>595</v>
-      </c>
-      <c r="G14" s="41" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15">
         <v>8009</v>
       </c>
       <c r="C15" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D15" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E15" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F15" t="s">
-        <v>598</v>
-      </c>
-      <c r="G15" s="41" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>599</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16">
         <v>8010</v>
       </c>
       <c r="C16" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D16" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E16" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F16" t="s">
-        <v>601</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17">
         <v>8011</v>
       </c>
       <c r="C17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D17" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F17" t="s">
-        <v>603</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+        <v>604</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18">
         <v>8012</v>
       </c>
       <c r="C18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F18" t="s">
-        <v>605</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+        <v>606</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19">
         <v>8013</v>
       </c>
       <c r="C19" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D19" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E19" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F19" t="s">
-        <v>608</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+        <v>609</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20">
         <v>8014</v>
       </c>
       <c r="C20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D20" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E20" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F20" t="s">
-        <v>611</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+        <v>612</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21">
         <v>8015</v>
       </c>
       <c r="C21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E21" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="F21" t="s">
-        <v>614</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22">
         <v>8016</v>
       </c>
       <c r="C22" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D22" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E22" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F22" t="s">
-        <v>617</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23">
         <v>8017</v>
       </c>
       <c r="C23" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D23" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E23" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F23" t="s">
-        <v>620</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+        <v>621</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24">
         <v>8018</v>
       </c>
       <c r="C24" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D24" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E24" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F24" t="s">
-        <v>623</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>586</v>
+        <v>624</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="58.19921875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.2" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.4" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9.2" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.7" style="10" customWidth="1"/>
+    <col min="5" max="5" width="58.2" style="10" customWidth="1"/>
+    <col min="6" max="6" width="9.7" style="10" customWidth="1"/>
+    <col min="7" max="7" width="14.6" style="10" customWidth="1"/>
     <col min="8" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -4282,7 +4816,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -4292,7 +4826,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -4315,7 +4849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -4338,7 +4872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -4361,7 +4895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -4372,198 +4906,199 @@
       <c r="F6" s="6"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>100001</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F7" s="9">
         <v>1</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>100002</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F8" s="9">
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>100003</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>100004</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F10" s="19">
         <v>1</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="19"/>
       <c r="B11" s="19">
         <v>1000010</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F11" s="19">
         <v>1</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="19"/>
       <c r="B12" s="19">
         <v>1000011</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F12" s="19">
         <v>1</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="19">
         <v>1000012</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F13" s="19">
         <v>1</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="19">
         <v>1000013</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F14" s="20">
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.2" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" customWidth="1"/>
-    <col min="5" max="5" width="22.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="7.2" customWidth="1"/>
+    <col min="4" max="4" width="18.7" customWidth="1"/>
+    <col min="5" max="5" width="22.4" customWidth="1"/>
+    <col min="6" max="6" width="12.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" s="10" customFormat="1" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -4584,7 +5119,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" s="10" customFormat="1" spans="1:7">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -4605,7 +5140,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" s="10" customFormat="1" spans="1:7">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -4626,7 +5161,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" s="10" customFormat="1" spans="1:7">
       <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -4637,544 +5172,545 @@
       <c r="F6" s="6"/>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="15"/>
       <c r="B7" s="16">
         <v>110001</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="15"/>
       <c r="B8" s="16">
         <v>110002</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="15"/>
       <c r="B9" s="16">
         <v>110003</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="16">
         <v>110004</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="16">
         <v>110005</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="16">
         <v>110006</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="16">
         <v>110007</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="16">
         <v>110008</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="16">
         <v>110009</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="16">
         <v>110010</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="16">
         <v>110011</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="16">
         <v>110012</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="16">
         <v>110013</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="16">
         <v>110014</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="16">
         <v>110015</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="16">
         <v>110016</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="16">
         <v>110017</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="16">
         <v>110018</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="16">
         <v>110019</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="16">
         <v>110020</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="16">
         <v>110021</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="16">
         <v>110022</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="16">
         <v>110023</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="16">
         <v>110024</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="16">
         <v>110025</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="16">
         <v>110026</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="16">
         <v>110027</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="16">
         <v>110028</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="16">
         <v>110029</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.35">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="16">
         <v>110030</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" customWidth="1"/>
-    <col min="3" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="52.59765625" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.2" customWidth="1"/>
+    <col min="2" max="2" width="8.2" customWidth="1"/>
+    <col min="3" max="4" width="12.4" customWidth="1"/>
+    <col min="5" max="5" width="52.6" customWidth="1"/>
+    <col min="6" max="6" width="12.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -5184,7 +5720,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -5194,7 +5730,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -5214,7 +5750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -5234,7 +5770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -5254,7 +5790,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -5264,301 +5800,302 @@
       <c r="E6" s="11"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>9001</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>9002</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>9003</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>9004</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>9005</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="8">
         <v>9006</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="8">
         <v>9007</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8">
         <v>9008</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="8">
         <v>9009</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8">
         <v>9010</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="8">
         <v>9011</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8">
         <v>9012</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="8"/>
       <c r="B19" s="8">
         <v>9013</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8">
         <v>9014</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8">
         <v>9015</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" customWidth="1"/>
-    <col min="3" max="4" width="7.19921875" customWidth="1"/>
-    <col min="5" max="5" width="35.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
-    <col min="9" max="9" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.2" customWidth="1"/>
+    <col min="2" max="2" width="8.2" customWidth="1"/>
+    <col min="3" max="4" width="7.2" customWidth="1"/>
+    <col min="5" max="5" width="35.1" customWidth="1"/>
+    <col min="6" max="6" width="12.7" customWidth="1"/>
+    <col min="9" max="9" width="14.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -5568,7 +6105,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -5578,7 +6115,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -5598,7 +6135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -5618,7 +6155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -5638,7 +6175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -5648,338 +6185,340 @@
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>30001</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>30002</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>30003</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>30004</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" s="8"/>
       <c r="B11" s="8">
         <v>30005</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" s="8"/>
       <c r="B12" s="8">
         <v>30006</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" s="8"/>
       <c r="B13" s="8">
         <v>30007</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" s="8"/>
       <c r="B14" s="8">
         <v>30008</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" s="8"/>
       <c r="B15" s="8">
         <v>30009</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6">
       <c r="A16" s="8"/>
       <c r="B16" s="8">
         <v>30010</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="8"/>
       <c r="B17" s="8">
         <v>30011</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="8"/>
       <c r="B18" s="8">
         <v>30012</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="8"/>
       <c r="B19" s="8">
         <v>30013</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="8"/>
       <c r="B20" s="8">
         <v>30014</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="8"/>
       <c r="B21" s="8">
         <v>30015</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="A22" s="8"/>
       <c r="B22" s="8">
         <v>30016</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.2" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.4" style="10" customWidth="1"/>
     <col min="3" max="4" width="7.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="42.19921875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17.19921875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="8.59765625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13.19921875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="42.2" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.7" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.2" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.2" style="10" customWidth="1"/>
+    <col min="9" max="9" width="8.6" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.2" style="10" customWidth="1"/>
     <col min="11" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:10">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -5995,7 +6534,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -6017,7 +6556,7 @@
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -6028,7 +6567,7 @@
       </c>
       <c r="K3" s="14"/>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -6050,7 +6589,7 @@
       <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>25</v>
       </c>
       <c r="I4" s="6" t="s">
@@ -6061,7 +6600,7 @@
       </c>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -6083,7 +6622,7 @@
       <c r="G5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="35" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="6" t="s">
@@ -6094,7 +6633,7 @@
       </c>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="25"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -6106,7 +6645,7 @@
       <c r="G6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="35" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="6"/>
@@ -6115,7 +6654,7 @@
       </c>
       <c r="K6" s="14"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="19">
         <v>1</v>
       </c>
@@ -6125,7 +6664,7 @@
       <c r="D7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -6134,7 +6673,7 @@
       <c r="G7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="37" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="9">
@@ -6144,7 +6683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="19">
         <v>2</v>
       </c>
@@ -6154,7 +6693,7 @@
       <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -6163,7 +6702,7 @@
       <c r="G8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="37" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="9">
@@ -6173,7 +6712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="19">
         <v>3</v>
       </c>
@@ -6183,7 +6722,7 @@
       <c r="D9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="36" t="s">
         <v>41</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -6192,7 +6731,7 @@
       <c r="G9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="37" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="9"/>
@@ -6200,7 +6739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="19">
         <v>4</v>
       </c>
@@ -6210,7 +6749,7 @@
       <c r="D10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="36" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -6219,15 +6758,15 @@
       <c r="G10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="19">
         <v>5</v>
       </c>
@@ -6237,7 +6776,7 @@
       <c r="D11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="36" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -6246,15 +6785,15 @@
       <c r="G11" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="37"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="19">
         <v>6</v>
       </c>
@@ -6264,7 +6803,7 @@
       <c r="D12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="36" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -6273,15 +6812,15 @@
       <c r="G12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="19">
         <v>7</v>
       </c>
@@ -6291,7 +6830,7 @@
       <c r="D13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F13" s="19" t="s">
@@ -6300,15 +6839,15 @@
       <c r="G13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="19">
         <v>8</v>
       </c>
@@ -6318,7 +6857,7 @@
       <c r="D14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="36" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -6327,15 +6866,15 @@
       <c r="G14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="37"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" s="19">
         <v>9</v>
       </c>
@@ -6345,7 +6884,7 @@
       <c r="D15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="36" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="19" t="s">
@@ -6354,15 +6893,15 @@
       <c r="G15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="37"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" s="19">
         <v>10</v>
       </c>
@@ -6372,7 +6911,7 @@
       <c r="D16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>56</v>
       </c>
       <c r="F16" s="19" t="s">
@@ -6381,10 +6920,10 @@
       <c r="G16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="37"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="19" t="s">
         <v>55</v>
       </c>
@@ -6393,51 +6932,52 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.19921875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="44.69921875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="31.3984375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.69921875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="9.69921875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.2" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6.4" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.2" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.9" style="10" customWidth="1"/>
+    <col min="5" max="5" width="44.7" style="10" customWidth="1"/>
+    <col min="6" max="6" width="31.4" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.2" style="10" customWidth="1"/>
+    <col min="8" max="8" width="12.7" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.7" style="10" customWidth="1"/>
+    <col min="10" max="10" width="8.6" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.7" style="10" customWidth="1"/>
     <col min="12" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="2:11">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="17"/>
       <c r="K1" s="19"/>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:11">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -6454,7 +6994,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -6487,7 +7027,7 @@
       </c>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -6520,7 +7060,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -6553,7 +7093,7 @@
       </c>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" s="25"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -6570,7 +7110,7 @@
       <c r="J6" s="6"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10">
       <c r="A7" s="19"/>
       <c r="B7" s="19">
         <v>11021</v>
@@ -6581,10 +7121,10 @@
       <c r="D7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="34" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -6600,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10">
       <c r="A8" s="19"/>
       <c r="B8" s="19">
         <v>11012</v>
@@ -6611,10 +7151,10 @@
       <c r="D8" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="34" t="s">
         <v>67</v>
       </c>
       <c r="G8" s="19" t="s">
@@ -6630,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10">
       <c r="A9" s="19"/>
       <c r="B9" s="19">
         <v>11031</v>
@@ -6641,10 +7181,10 @@
       <c r="D9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="34" t="s">
         <v>71</v>
       </c>
       <c r="G9" s="19" t="s">
@@ -6660,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" s="19"/>
       <c r="B10" s="19">
         <v>11032</v>
@@ -6671,10 +7211,10 @@
       <c r="D10" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="34" t="s">
         <v>75</v>
       </c>
       <c r="G10" s="19" t="s">
@@ -6690,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" s="19"/>
       <c r="B11" s="19">
         <v>11042</v>
@@ -6701,10 +7241,10 @@
       <c r="D11" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="34" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="19" t="s">
@@ -6720,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10">
       <c r="A12" s="19"/>
       <c r="B12" s="19">
         <v>11043</v>
@@ -6731,10 +7271,10 @@
       <c r="D12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="34" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="19" t="s">
@@ -6750,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10">
       <c r="A13" s="19"/>
       <c r="B13" s="19">
         <v>11051</v>
@@ -6761,10 +7301,10 @@
       <c r="D13" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="34" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="19" t="s">
@@ -6780,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10">
       <c r="A14" s="19"/>
       <c r="B14" s="19">
         <v>11052</v>
@@ -6791,10 +7331,10 @@
       <c r="D14" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="34" t="s">
         <v>87</v>
       </c>
       <c r="G14" s="19" t="s">
@@ -6810,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10">
       <c r="A15" s="19"/>
       <c r="B15" s="19">
         <v>11062</v>
@@ -6821,10 +7361,10 @@
       <c r="D15" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="34" t="s">
         <v>91</v>
       </c>
       <c r="G15" s="19" t="s">
@@ -6840,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10">
       <c r="A16" s="19"/>
       <c r="B16" s="19">
         <v>12023</v>
@@ -6851,10 +7391,10 @@
       <c r="D16" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="34" t="s">
         <v>94</v>
       </c>
       <c r="G16" s="19" t="s">
@@ -6870,7 +7410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10">
       <c r="A17" s="19"/>
       <c r="B17" s="19">
         <v>12021</v>
@@ -6881,10 +7421,10 @@
       <c r="D17" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="34" t="s">
         <v>98</v>
       </c>
       <c r="G17" s="19" t="s">
@@ -6900,7 +7440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10">
       <c r="A18" s="19"/>
       <c r="B18" s="19">
         <v>12041</v>
@@ -6911,10 +7451,10 @@
       <c r="D18" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="34" t="s">
         <v>102</v>
       </c>
       <c r="G18" s="19" t="s">
@@ -6930,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" s="19"/>
       <c r="B19" s="19">
         <v>12042</v>
@@ -6941,10 +7481,10 @@
       <c r="D19" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="34" t="s">
         <v>105</v>
       </c>
       <c r="G19" s="19" t="s">
@@ -6957,7 +7497,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10">
       <c r="A20" s="19"/>
       <c r="B20" s="19">
         <v>12051</v>
@@ -6968,10 +7508,10 @@
       <c r="D20" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="34" t="s">
         <v>109</v>
       </c>
       <c r="G20" s="19" t="s">
@@ -6987,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10">
       <c r="A21" s="19"/>
       <c r="B21" s="19">
         <v>13031</v>
@@ -6998,10 +7538,10 @@
       <c r="D21" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="34" t="s">
         <v>113</v>
       </c>
       <c r="G21" s="19" t="s">
@@ -7017,7 +7557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10">
       <c r="A22" s="19"/>
       <c r="B22" s="19">
         <v>13043</v>
@@ -7028,10 +7568,10 @@
       <c r="D22" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="34" t="s">
         <v>116</v>
       </c>
       <c r="G22" s="19" t="s">
@@ -7047,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10">
       <c r="A23" s="19"/>
       <c r="B23" s="19">
         <v>13053</v>
@@ -7058,10 +7598,10 @@
       <c r="D23" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="34" t="s">
         <v>120</v>
       </c>
       <c r="G23" s="19" t="s">
@@ -7077,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10">
       <c r="A24" s="19"/>
       <c r="B24" s="19">
         <v>14011</v>
@@ -7088,10 +7628,10 @@
       <c r="D24" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="34" t="s">
         <v>124</v>
       </c>
       <c r="G24" s="19" t="s">
@@ -7107,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10">
       <c r="A25" s="19"/>
       <c r="B25" s="19">
         <v>14012</v>
@@ -7118,10 +7658,10 @@
       <c r="D25" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="34" t="s">
         <v>128</v>
       </c>
       <c r="G25" s="19" t="s">
@@ -7137,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10">
       <c r="A26" s="19"/>
       <c r="B26" s="19">
         <v>14051</v>
@@ -7148,10 +7688,10 @@
       <c r="D26" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="34" t="s">
         <v>131</v>
       </c>
       <c r="G26" s="19" t="s">
@@ -7167,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="19">
         <v>14061</v>
       </c>
@@ -7177,10 +7717,10 @@
       <c r="D27" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="34" t="s">
         <v>135</v>
       </c>
       <c r="G27" s="19" t="s">
@@ -7196,7 +7736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="19">
         <v>35001</v>
       </c>
@@ -7206,10 +7746,10 @@
       <c r="D28" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="34" t="s">
         <v>138</v>
       </c>
       <c r="G28" s="19" t="s">
@@ -7225,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="19">
         <v>35002</v>
       </c>
@@ -7235,10 +7775,10 @@
       <c r="D29" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="34" t="s">
         <v>141</v>
       </c>
       <c r="G29" s="19" t="s">
@@ -7254,7 +7794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9">
       <c r="B30" s="19">
         <v>35003</v>
       </c>
@@ -7264,10 +7804,10 @@
       <c r="D30" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="34" t="s">
         <v>144</v>
       </c>
       <c r="G30" s="19" t="s">
@@ -7280,7 +7820,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="19">
         <v>35004</v>
       </c>
@@ -7290,10 +7830,10 @@
       <c r="D31" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="F31" s="33" t="s">
+      <c r="F31" s="34" t="s">
         <v>147</v>
       </c>
       <c r="G31" s="19" t="s">
@@ -7309,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="19">
         <v>35005</v>
       </c>
@@ -7319,10 +7859,10 @@
       <c r="D32" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="34" t="s">
         <v>150</v>
       </c>
       <c r="G32" s="19" t="s">
@@ -7338,7 +7878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9">
       <c r="B33" s="19">
         <v>14022</v>
       </c>
@@ -7348,10 +7888,10 @@
       <c r="D33" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="34" t="s">
         <v>153</v>
       </c>
       <c r="G33" s="19" t="s">
@@ -7364,7 +7904,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9">
       <c r="B34" s="19" t="s">
         <v>154</v>
       </c>
@@ -7374,10 +7914,10 @@
       <c r="D34" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="34" t="s">
         <v>158</v>
       </c>
       <c r="G34" s="19" t="s">
@@ -7390,7 +7930,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9">
       <c r="B35" s="19" t="s">
         <v>159</v>
       </c>
@@ -7400,10 +7940,10 @@
       <c r="D35" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="34" t="s">
         <v>162</v>
       </c>
       <c r="G35" s="19" t="s">
@@ -7416,7 +7956,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9">
       <c r="B36" s="19">
         <v>35006</v>
       </c>
@@ -7426,10 +7966,10 @@
       <c r="D36" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="34" t="s">
         <v>165</v>
       </c>
       <c r="G36" s="19" t="s">
@@ -7442,7 +7982,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9">
       <c r="B37" s="19" t="s">
         <v>166</v>
       </c>
@@ -7452,10 +7992,10 @@
       <c r="D37" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="34" t="s">
         <v>169</v>
       </c>
       <c r="G37" s="19" t="s">
@@ -7468,7 +8008,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9">
       <c r="B38" s="19">
         <v>11061</v>
       </c>
@@ -7478,10 +8018,10 @@
       <c r="D38" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="33" t="s">
+      <c r="F38" s="34" t="s">
         <v>172</v>
       </c>
       <c r="G38" s="19" t="s">
@@ -7494,7 +8034,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9">
       <c r="B39" s="19">
         <v>11011</v>
       </c>
@@ -7504,10 +8044,10 @@
       <c r="D39" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="34" t="s">
         <v>176</v>
       </c>
       <c r="G39" s="19" t="s">
@@ -7520,7 +8060,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9">
       <c r="B40" s="19">
         <v>14052</v>
       </c>
@@ -7530,10 +8070,10 @@
       <c r="D40" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="34" t="s">
         <v>179</v>
       </c>
       <c r="G40" s="19" t="s">
@@ -7546,7 +8086,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9">
       <c r="B41" s="19">
         <v>14021</v>
       </c>
@@ -7556,10 +8096,10 @@
       <c r="D41" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="F41" s="33" t="s">
+      <c r="F41" s="34" t="s">
         <v>182</v>
       </c>
       <c r="G41" s="19" t="s">
@@ -7572,7 +8112,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9">
       <c r="B42" s="19">
         <v>12061</v>
       </c>
@@ -7582,10 +8122,10 @@
       <c r="D42" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="33" t="s">
+      <c r="F42" s="34" t="s">
         <v>186</v>
       </c>
       <c r="G42" s="19" t="s">
@@ -7598,7 +8138,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9">
       <c r="B43" s="19">
         <v>14032</v>
       </c>
@@ -7608,10 +8148,10 @@
       <c r="D43" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="34" t="s">
         <v>189</v>
       </c>
       <c r="G43" s="19" t="s">
@@ -7624,7 +8164,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9">
       <c r="B44" s="19">
         <v>13021</v>
       </c>
@@ -7634,10 +8174,10 @@
       <c r="D44" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="33" t="s">
+      <c r="F44" s="34" t="s">
         <v>193</v>
       </c>
       <c r="G44" s="19" t="s">
@@ -7650,7 +8190,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9">
       <c r="B45" s="19">
         <v>13051</v>
       </c>
@@ -7660,10 +8200,10 @@
       <c r="D45" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="34" t="s">
         <v>196</v>
       </c>
       <c r="G45" s="19" t="s">
@@ -7676,7 +8216,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9">
       <c r="B46" s="19">
         <v>13052</v>
       </c>
@@ -7686,10 +8226,10 @@
       <c r="D46" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="34" t="s">
         <v>200</v>
       </c>
       <c r="G46" s="19" t="s">
@@ -7702,7 +8242,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9">
       <c r="B47" s="19">
         <v>12052</v>
       </c>
@@ -7712,10 +8252,10 @@
       <c r="D47" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="E47" s="33" t="s">
+      <c r="E47" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="34" t="s">
         <v>203</v>
       </c>
       <c r="G47" s="19" t="s">
@@ -7728,7 +8268,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9">
       <c r="B48" s="19">
         <v>12031</v>
       </c>
@@ -7738,10 +8278,10 @@
       <c r="D48" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="33" t="s">
+      <c r="E48" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="F48" s="33" t="s">
+      <c r="F48" s="34" t="s">
         <v>206</v>
       </c>
       <c r="G48" s="19" t="s">
@@ -7754,7 +8294,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9">
       <c r="B49" s="19">
         <v>12012</v>
       </c>
@@ -7764,10 +8304,10 @@
       <c r="D49" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="F49" s="33" t="s">
+      <c r="F49" s="34" t="s">
         <v>210</v>
       </c>
       <c r="G49" s="19" t="s">
@@ -7780,7 +8320,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9">
       <c r="B50" s="19">
         <v>14041</v>
       </c>
@@ -7790,10 +8330,10 @@
       <c r="D50" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="33" t="s">
+      <c r="E50" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="F50" s="33" t="s">
+      <c r="F50" s="34" t="s">
         <v>213</v>
       </c>
       <c r="G50" s="19" t="s">
@@ -7806,7 +8346,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9">
       <c r="B51" s="19">
         <v>13011</v>
       </c>
@@ -7816,10 +8356,10 @@
       <c r="D51" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="34" t="s">
         <v>216</v>
       </c>
       <c r="G51" s="19" t="s">
@@ -7832,7 +8372,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9">
       <c r="B52" s="19">
         <v>12011</v>
       </c>
@@ -7842,10 +8382,10 @@
       <c r="D52" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="34" t="s">
         <v>219</v>
       </c>
       <c r="G52" s="19" t="s">
@@ -7858,7 +8398,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9">
       <c r="B53" s="19">
         <v>14062</v>
       </c>
@@ -7868,10 +8408,10 @@
       <c r="D53" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="34" t="s">
         <v>222</v>
       </c>
       <c r="G53" s="19" t="s">
@@ -7884,7 +8424,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9">
       <c r="B54" s="19">
         <v>12062</v>
       </c>
@@ -7894,10 +8434,10 @@
       <c r="D54" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="E54" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="F54" s="34" t="s">
         <v>225</v>
       </c>
       <c r="G54" s="19" t="s">
@@ -7910,7 +8450,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9">
       <c r="B55" s="19">
         <v>14031</v>
       </c>
@@ -7920,10 +8460,10 @@
       <c r="D55" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="E55" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F55" s="34" t="s">
         <v>228</v>
       </c>
       <c r="G55" s="19" t="s">
@@ -7936,7 +8476,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9">
       <c r="B56" s="19">
         <v>13061</v>
       </c>
@@ -7946,10 +8486,10 @@
       <c r="D56" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="E56" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="F56" s="33" t="s">
+      <c r="F56" s="34" t="s">
         <v>231</v>
       </c>
       <c r="G56" s="19" t="s">
@@ -7962,7 +8502,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9">
       <c r="B57" s="19">
         <v>11022</v>
       </c>
@@ -7972,10 +8512,10 @@
       <c r="D57" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="E57" s="33" t="s">
+      <c r="E57" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="F57" s="33" t="s">
+      <c r="F57" s="34" t="s">
         <v>234</v>
       </c>
       <c r="G57" s="19" t="s">
@@ -7988,7 +8528,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9">
       <c r="B58" s="19">
         <v>13022</v>
       </c>
@@ -7998,10 +8538,10 @@
       <c r="D58" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="F58" s="33" t="s">
+      <c r="F58" s="34" t="s">
         <v>237</v>
       </c>
       <c r="G58" s="19" t="s">
@@ -8014,7 +8554,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9">
       <c r="B59" s="19">
         <v>12032</v>
       </c>
@@ -8024,10 +8564,10 @@
       <c r="D59" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="E59" s="33" t="s">
+      <c r="E59" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="F59" s="33" t="s">
+      <c r="F59" s="34" t="s">
         <v>240</v>
       </c>
       <c r="G59" s="19" t="s">
@@ -8040,7 +8580,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9">
       <c r="B60" s="19">
         <v>13042</v>
       </c>
@@ -8050,10 +8590,10 @@
       <c r="D60" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="E60" s="33" t="s">
+      <c r="E60" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="F60" s="33" t="s">
+      <c r="F60" s="34" t="s">
         <v>243</v>
       </c>
       <c r="G60" s="19" t="s">
@@ -8066,7 +8606,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9">
       <c r="B61" s="19">
         <v>35009</v>
       </c>
@@ -8076,10 +8616,10 @@
       <c r="D61" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="E61" s="33" t="s">
+      <c r="E61" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F61" s="33" t="s">
+      <c r="F61" s="34" t="s">
         <v>246</v>
       </c>
       <c r="G61" s="19" t="s">
@@ -8092,42 +8632,42 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5">
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5">
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5">
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5">
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5">
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:5">
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:5">
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -8136,58 +8676,59 @@
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
   <conditionalFormatting sqref="B1:B7 B62 B68:B65536">
     <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>23008.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:I61">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>23008.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" customWidth="1"/>
-    <col min="3" max="4" width="12.69921875" customWidth="1"/>
-    <col min="5" max="5" width="87.69921875" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" customWidth="1"/>
-    <col min="9" max="9" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.2" customWidth="1"/>
+    <col min="2" max="2" width="6.4" customWidth="1"/>
+    <col min="3" max="4" width="12.7" customWidth="1"/>
+    <col min="5" max="5" width="87.7" customWidth="1"/>
+    <col min="6" max="6" width="12.7" customWidth="1"/>
+    <col min="7" max="7" width="13.2" customWidth="1"/>
+    <col min="8" max="8" width="8.6" customWidth="1"/>
+    <col min="9" max="9" width="14.7" customWidth="1"/>
     <col min="10" max="10" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="10"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="17"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:10">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -8203,7 +8744,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -8235,7 +8776,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -8267,7 +8808,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -8299,7 +8840,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" s="25"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -8315,7 +8856,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>21051</v>
       </c>
@@ -8341,7 +8882,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9">
       <c r="B8">
         <v>21052</v>
       </c>
@@ -8364,7 +8905,7 @@
         <v>-1348</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>21021</v>
       </c>
@@ -8390,7 +8931,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>21022</v>
       </c>
@@ -8413,7 +8954,7 @@
         <v>-1361</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10">
       <c r="B11">
         <v>22031</v>
       </c>
@@ -8439,7 +8980,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>22032</v>
       </c>
@@ -8462,7 +9003,7 @@
         <v>-384</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10">
       <c r="B13">
         <v>21011</v>
       </c>
@@ -8488,7 +9029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9">
       <c r="B14">
         <v>21012</v>
       </c>
@@ -8511,7 +9052,7 @@
         <v>-451</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15">
         <v>21061</v>
       </c>
@@ -8537,7 +9078,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:9">
       <c r="B16">
         <v>21062</v>
       </c>
@@ -8560,7 +9101,7 @@
         <v>-1315</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>21041</v>
       </c>
@@ -8583,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>21042</v>
       </c>
@@ -8608,7 +9149,7 @@
         <v>-1299</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19">
         <v>22011</v>
       </c>
@@ -8634,7 +9175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9">
       <c r="B20">
         <v>22012</v>
       </c>
@@ -8659,7 +9200,7 @@
         <v>-1330</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21">
         <v>22041</v>
       </c>
@@ -8685,7 +9226,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9">
       <c r="B22">
         <v>22042</v>
       </c>
@@ -8710,7 +9251,7 @@
         <v>-1407</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23">
         <v>22051</v>
       </c>
@@ -8736,7 +9277,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9">
       <c r="B24">
         <v>22052</v>
       </c>
@@ -8748,7 +9289,7 @@
         <f>D23&amp;"坐姿"</f>
         <v>海蒂坐姿</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="33" t="s">
         <v>282</v>
       </c>
       <c r="F24" t="s">
@@ -8761,7 +9302,7 @@
         <v>-1353</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25">
         <v>23041</v>
       </c>
@@ -8787,7 +9328,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9">
       <c r="B26">
         <v>23042</v>
       </c>
@@ -8810,7 +9351,7 @@
         <v>-1337</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27">
         <v>23011</v>
       </c>
@@ -8836,7 +9377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9">
       <c r="B28">
         <v>23012</v>
       </c>
@@ -8859,7 +9400,7 @@
         <v>-1324</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29">
         <v>21031</v>
       </c>
@@ -8885,7 +9426,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9">
       <c r="B30">
         <v>21032</v>
       </c>
@@ -8908,7 +9449,7 @@
         <v>-1179</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31">
         <v>23021</v>
       </c>
@@ -8934,7 +9475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9">
       <c r="B32">
         <v>23022</v>
       </c>
@@ -8957,7 +9498,7 @@
         <v>-1318</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33">
         <v>22021</v>
       </c>
@@ -8983,7 +9524,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9">
       <c r="B34">
         <v>22022</v>
       </c>
@@ -9006,7 +9547,7 @@
         <v>-1363</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35">
         <v>23051</v>
       </c>
@@ -9032,7 +9573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9">
       <c r="B36">
         <v>23052</v>
       </c>
@@ -9055,7 +9596,7 @@
         <v>-1064</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37">
         <v>23061</v>
       </c>
@@ -9081,7 +9622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9">
       <c r="B38">
         <v>23062</v>
       </c>
@@ -9104,7 +9645,7 @@
         <v>-836</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39">
         <v>24051</v>
       </c>
@@ -9130,7 +9671,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9">
       <c r="B40">
         <v>24052</v>
       </c>
@@ -9153,7 +9694,7 @@
         <v>-1218</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41">
         <v>24011</v>
       </c>
@@ -9179,7 +9720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9">
       <c r="B42">
         <v>24012</v>
       </c>
@@ -9202,7 +9743,7 @@
         <v>-1195</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43">
         <v>24021</v>
       </c>
@@ -9228,7 +9769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9">
       <c r="B44">
         <v>24022</v>
       </c>
@@ -9251,7 +9792,7 @@
         <v>-1336</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45">
         <v>24041</v>
       </c>
@@ -9277,7 +9818,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9">
       <c r="B46">
         <v>24042</v>
       </c>
@@ -9300,7 +9841,7 @@
         <v>-1407</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47">
         <v>24061</v>
       </c>
@@ -9326,7 +9867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9">
       <c r="B48">
         <v>24062</v>
       </c>
@@ -9349,7 +9890,7 @@
         <v>-1344</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49">
         <v>22061</v>
       </c>
@@ -9375,7 +9916,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9">
       <c r="B50">
         <v>22062</v>
       </c>
@@ -9398,7 +9939,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51">
         <v>24031</v>
       </c>
@@ -9424,7 +9965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9">
       <c r="B52">
         <v>24032</v>
       </c>
@@ -9447,7 +9988,7 @@
         <v>-1344</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53">
         <v>23031</v>
       </c>
@@ -9473,7 +10014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9">
       <c r="B54">
         <v>23032</v>
       </c>
@@ -9496,7 +10037,7 @@
         <v>-1344</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9">
       <c r="B55">
         <v>23033</v>
       </c>
@@ -9506,7 +10047,7 @@
       <c r="D55" t="s">
         <v>343</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E55" s="33" t="s">
         <v>344</v>
       </c>
       <c r="F55" t="s">
@@ -9519,7 +10060,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9">
       <c r="B56">
         <v>23034</v>
       </c>
@@ -9542,7 +10083,7 @@
         <v>-836</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9">
       <c r="B57">
         <v>23035</v>
       </c>
@@ -9552,7 +10093,7 @@
       <c r="D57" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="33" t="s">
         <v>348</v>
       </c>
       <c r="F57" t="s">
@@ -9565,7 +10106,7 @@
         <v>-1336</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9">
       <c r="B58">
         <v>23036</v>
       </c>
@@ -9588,7 +10129,7 @@
         <v>-1336</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9">
       <c r="B59">
         <v>23037</v>
       </c>
@@ -9598,7 +10139,7 @@
       <c r="D59" t="s">
         <v>351</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E59" s="33" t="s">
         <v>352</v>
       </c>
       <c r="F59" t="s">
@@ -9611,7 +10152,7 @@
         <v>-1353</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9">
       <c r="B60">
         <v>23038</v>
       </c>
@@ -9634,7 +10175,7 @@
         <v>-1353</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9">
       <c r="B61">
         <v>23039</v>
       </c>
@@ -9657,7 +10198,7 @@
         <v>-1361</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9">
       <c r="B62">
         <v>23040</v>
       </c>
@@ -9680,17 +10221,17 @@
         <v>-1361</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9">
       <c r="B63">
         <v>25001</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E63" s="33" t="s">
         <v>360</v>
       </c>
       <c r="F63" t="s">
@@ -9703,14 +10244,14 @@
         <v>-1344</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9">
       <c r="B64">
         <v>25002</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="33" t="s">
         <v>361</v>
       </c>
       <c r="E64" t="s">
@@ -9726,7 +10267,7 @@
         <v>-1344</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9">
       <c r="B65">
         <v>25003</v>
       </c>
@@ -9736,7 +10277,7 @@
       <c r="D65" t="s">
         <v>363</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E65" s="33" t="s">
         <v>364</v>
       </c>
       <c r="F65" t="s">
@@ -9749,7 +10290,7 @@
         <v>-1200</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9">
       <c r="B66">
         <v>25004</v>
       </c>
@@ -9772,7 +10313,7 @@
         <v>-451</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9">
       <c r="B67">
         <v>25005</v>
       </c>
@@ -9782,7 +10323,7 @@
       <c r="D67" t="s">
         <v>367</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="33" t="s">
         <v>368</v>
       </c>
       <c r="F67" t="s">
@@ -9795,7 +10336,7 @@
         <v>-1361</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9">
       <c r="B68">
         <v>25006</v>
       </c>
@@ -9818,7 +10359,7 @@
         <v>-1361</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9">
       <c r="B69">
         <v>25007</v>
       </c>
@@ -9828,7 +10369,7 @@
       <c r="D69" t="s">
         <v>371</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E69" s="33" t="s">
         <v>372</v>
       </c>
       <c r="F69" t="s">
@@ -9841,7 +10382,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9">
       <c r="B70">
         <v>25008</v>
       </c>
@@ -9865,7 +10406,7 @@
         <v>-2650</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9">
       <c r="B71">
         <v>25009</v>
       </c>
@@ -9875,7 +10416,7 @@
       <c r="D71" t="s">
         <v>375</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E71" s="33" t="s">
         <v>376</v>
       </c>
       <c r="F71" t="s">
@@ -9888,7 +10429,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9">
       <c r="B72">
         <v>25010</v>
       </c>
@@ -9898,7 +10439,7 @@
       <c r="D72" t="s">
         <v>377</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E72" s="33" t="s">
         <v>378</v>
       </c>
       <c r="F72" t="s">
@@ -9911,7 +10452,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9">
       <c r="B73">
         <v>25011</v>
       </c>
@@ -9921,7 +10462,7 @@
       <c r="D73" t="s">
         <v>379</v>
       </c>
-      <c r="E73" s="32" t="s">
+      <c r="E73" s="33" t="s">
         <v>380</v>
       </c>
       <c r="F73" t="s">
@@ -9934,7 +10475,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9">
       <c r="B74">
         <v>25012</v>
       </c>
@@ -9944,7 +10485,7 @@
       <c r="D74" t="s">
         <v>381</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F74" t="s">
@@ -9957,7 +10498,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9">
       <c r="B75">
         <v>25013</v>
       </c>
@@ -9967,7 +10508,7 @@
       <c r="D75" t="s">
         <v>383</v>
       </c>
-      <c r="E75" s="32" t="s">
+      <c r="E75" s="33" t="s">
         <v>384</v>
       </c>
       <c r="F75" t="s">
@@ -9980,7 +10521,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9">
       <c r="B76">
         <v>25014</v>
       </c>
@@ -9990,7 +10531,7 @@
       <c r="D76" t="s">
         <v>385</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E76" s="33" t="s">
         <v>386</v>
       </c>
       <c r="F76" t="s">
@@ -10003,7 +10544,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9">
       <c r="B77">
         <v>25015</v>
       </c>
@@ -10013,7 +10554,7 @@
       <c r="D77" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="32" t="s">
+      <c r="E77" s="33" t="s">
         <v>388</v>
       </c>
       <c r="F77" t="s">
@@ -10026,7 +10567,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9">
       <c r="B78">
         <v>25016</v>
       </c>
@@ -10036,7 +10577,7 @@
       <c r="D78" t="s">
         <v>389</v>
       </c>
-      <c r="E78" s="32" t="s">
+      <c r="E78" s="33" t="s">
         <v>390</v>
       </c>
       <c r="F78" t="s">
@@ -10049,7 +10590,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9">
       <c r="B79">
         <v>25017</v>
       </c>
@@ -10072,7 +10613,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9">
       <c r="B80">
         <v>25018</v>
       </c>
@@ -10095,7 +10636,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9">
       <c r="B81">
         <v>25019</v>
       </c>
@@ -10118,7 +10659,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9">
       <c r="B82">
         <v>25020</v>
       </c>
@@ -10141,7 +10682,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9">
       <c r="B83">
         <v>25021</v>
       </c>
@@ -10164,7 +10705,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9">
       <c r="B84">
         <v>25022</v>
       </c>
@@ -10187,7 +10728,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9">
       <c r="B85">
         <v>25023</v>
       </c>
@@ -10210,7 +10751,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9">
       <c r="B86">
         <v>25024</v>
       </c>
@@ -10233,7 +10774,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9">
       <c r="B87">
         <v>25025</v>
       </c>
@@ -10256,7 +10797,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9">
       <c r="B88">
         <v>25026</v>
       </c>
@@ -10279,7 +10820,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9">
       <c r="B89">
         <v>25027</v>
       </c>
@@ -10302,7 +10843,7 @@
         <v>-1325</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90">
         <v>25028</v>
       </c>
@@ -10312,7 +10853,7 @@
       <c r="D90" t="s">
         <v>413</v>
       </c>
-      <c r="E90" s="32" t="s">
+      <c r="E90" s="33" t="s">
         <v>414</v>
       </c>
       <c r="F90" t="s">
@@ -10331,7 +10872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91">
         <v>25029</v>
       </c>
@@ -10360,7 +10901,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92">
         <v>25030</v>
       </c>
@@ -10370,7 +10911,7 @@
       <c r="D92" t="s">
         <v>417</v>
       </c>
-      <c r="E92" s="32" t="s">
+      <c r="E92" s="33" t="s">
         <v>418</v>
       </c>
       <c r="F92" t="s">
@@ -10389,7 +10930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93">
         <v>25031</v>
       </c>
@@ -10418,7 +10959,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94">
         <v>25032</v>
       </c>
@@ -10428,7 +10969,7 @@
       <c r="D94" t="s">
         <v>421</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="33" t="s">
         <v>422</v>
       </c>
       <c r="F94" t="s">
@@ -10447,7 +10988,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95">
         <v>25033</v>
       </c>
@@ -10476,7 +11017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96">
         <v>25034</v>
       </c>
@@ -10486,7 +11027,7 @@
       <c r="D96" t="s">
         <v>425</v>
       </c>
-      <c r="E96" s="32" t="s">
+      <c r="E96" s="33" t="s">
         <v>426</v>
       </c>
       <c r="F96" t="s">
@@ -10505,7 +11046,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97">
         <v>25035</v>
       </c>
@@ -10534,7 +11075,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98">
         <v>25036</v>
       </c>
@@ -10563,7 +11104,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99">
         <v>25037</v>
       </c>
@@ -10592,7 +11133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100">
         <v>25038</v>
       </c>
@@ -10602,7 +11143,7 @@
       <c r="D100" t="s">
         <v>433</v>
       </c>
-      <c r="E100" s="32" t="s">
+      <c r="E100" s="33" t="s">
         <v>434</v>
       </c>
       <c r="F100" t="s">
@@ -10621,7 +11162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101">
         <v>25039</v>
       </c>
@@ -10650,7 +11191,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102">
         <v>25040</v>
       </c>
@@ -10660,7 +11201,7 @@
       <c r="D102" t="s">
         <v>437</v>
       </c>
-      <c r="E102" s="32" t="s">
+      <c r="E102" s="33" t="s">
         <v>438</v>
       </c>
       <c r="F102" t="s">
@@ -10679,7 +11220,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103">
         <v>25041</v>
       </c>
@@ -10708,7 +11249,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104">
         <v>25042</v>
       </c>
@@ -10718,7 +11259,7 @@
       <c r="D104" t="s">
         <v>441</v>
       </c>
-      <c r="E104" s="32" t="s">
+      <c r="E104" s="33" t="s">
         <v>442</v>
       </c>
       <c r="F104" t="s">
@@ -10737,7 +11278,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105">
         <v>25043</v>
       </c>
@@ -10766,7 +11307,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106">
         <v>25044</v>
       </c>
@@ -10795,7 +11336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:8">
       <c r="B107">
         <v>25045</v>
       </c>
@@ -10822,47 +11363,48 @@
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.2" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.4" style="10" customWidth="1"/>
     <col min="3" max="3" width="11" style="10" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="10.2" style="10" customWidth="1"/>
     <col min="5" max="5" width="50" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.2" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.7" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.6" style="20" customWidth="1"/>
+    <col min="9" max="9" width="8.7" style="10" customWidth="1"/>
     <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="17"/>
       <c r="I1" s="19"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:9">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -10877,7 +11419,7 @@
       </c>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -10904,7 +11446,7 @@
       </c>
       <c r="J3" s="14"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -10931,7 +11473,7 @@
       </c>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -10958,7 +11500,7 @@
       </c>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10">
       <c r="A6" s="25"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -10973,7 +11515,7 @@
       <c r="H6" s="6"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8">
       <c r="B7" s="9">
         <v>3000</v>
       </c>
@@ -10996,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8">
       <c r="B8" s="9">
         <v>3001</v>
       </c>
@@ -11017,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8">
       <c r="B9" s="9">
         <v>3002</v>
       </c>
@@ -11038,7 +11580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8">
       <c r="B10" s="9">
         <v>3003</v>
       </c>
@@ -11059,7 +11601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8">
       <c r="B11" s="9">
         <v>3004</v>
       </c>
@@ -11080,7 +11622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8">
       <c r="B12" s="9">
         <v>3005</v>
       </c>
@@ -11101,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8">
       <c r="B13" s="9">
         <v>3006</v>
       </c>
@@ -11124,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8">
       <c r="B14" s="9">
         <v>3007</v>
       </c>
@@ -11144,7 +11686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8">
       <c r="B15" s="9">
         <v>3008</v>
       </c>
@@ -11164,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8">
       <c r="B16" s="9">
         <v>3009</v>
       </c>
@@ -11184,7 +11726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8">
       <c r="B17" s="9">
         <v>3010</v>
       </c>
@@ -11204,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8">
       <c r="B18" s="9">
         <v>3011</v>
       </c>
@@ -11224,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8">
       <c r="B19" s="9">
         <v>3012</v>
       </c>
@@ -11244,7 +11786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8">
       <c r="B20" s="9">
         <v>3013</v>
       </c>
@@ -11264,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8">
       <c r="B21" s="9">
         <v>3014</v>
       </c>
@@ -11284,7 +11826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8">
       <c r="B22" s="9">
         <v>3015</v>
       </c>
@@ -11304,7 +11846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8">
       <c r="B23" s="9">
         <v>3016</v>
       </c>
@@ -11324,7 +11866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8">
       <c r="B24" s="9">
         <v>3017</v>
       </c>
@@ -11344,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8">
       <c r="B25" s="9">
         <v>3018</v>
       </c>
@@ -11364,7 +11906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8">
       <c r="B26" s="9">
         <v>3019</v>
       </c>
@@ -11387,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8">
       <c r="B27" s="9">
         <v>3020</v>
       </c>
@@ -11407,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8">
       <c r="B28" s="9">
         <v>3021</v>
       </c>
@@ -11427,7 +11969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8">
       <c r="B29" s="9">
         <v>3022</v>
       </c>
@@ -11447,7 +11989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8">
       <c r="B30" s="9">
         <v>3023</v>
       </c>
@@ -11467,7 +12009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8">
       <c r="B31" s="9">
         <v>3024</v>
       </c>
@@ -11487,7 +12029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8">
       <c r="B32" s="9">
         <v>3025</v>
       </c>
@@ -11507,7 +12049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8">
       <c r="B33" s="9">
         <v>3026</v>
       </c>
@@ -11527,7 +12069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8">
       <c r="B34" s="9">
         <v>3027</v>
       </c>
@@ -11547,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8">
       <c r="B35" s="9">
         <v>3028</v>
       </c>
@@ -11567,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8">
       <c r="B36" s="9">
         <v>3029</v>
       </c>
@@ -11590,7 +12132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8">
       <c r="B37" s="9">
         <v>3030</v>
       </c>
@@ -11610,7 +12152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8">
       <c r="B38" s="9">
         <v>3031</v>
       </c>
@@ -11630,7 +12172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8">
       <c r="B39" s="9">
         <v>3032</v>
       </c>
@@ -11650,7 +12192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8">
       <c r="B40" s="9">
         <v>3033</v>
       </c>
@@ -11670,7 +12212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8">
       <c r="A41" s="31" t="s">
         <v>492</v>
       </c>
@@ -11694,7 +12236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8">
       <c r="B42" s="9">
         <v>3035</v>
       </c>
@@ -11715,7 +12257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8">
       <c r="B43" s="9">
         <v>3036</v>
       </c>
@@ -11736,7 +12278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8">
       <c r="B44" s="9">
         <v>3037</v>
       </c>
@@ -11757,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8">
       <c r="B45" s="9">
         <v>3038</v>
       </c>
@@ -11778,7 +12320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8">
       <c r="B46" s="9">
         <v>3039</v>
       </c>
@@ -11799,7 +12341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8">
       <c r="B47" s="9">
         <v>3040</v>
       </c>
@@ -11820,7 +12362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8">
       <c r="B48" s="9">
         <v>3041</v>
       </c>
@@ -11841,7 +12383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8">
       <c r="B49" s="9">
         <v>3042</v>
       </c>
@@ -11862,7 +12404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8">
       <c r="B50" s="9">
         <v>3043</v>
       </c>
@@ -11883,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8">
       <c r="B51" s="9">
         <v>3044</v>
       </c>
@@ -11904,7 +12446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8">
       <c r="A52" s="31" t="s">
         <v>504</v>
       </c>
@@ -11914,92 +12456,93 @@
       <c r="C52" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="D52" s="46" t="s">
-        <v>793</v>
+      <c r="D52" s="32" t="s">
+        <v>506</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G52" s="20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H52" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2">
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2">
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2">
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:2">
       <c r="B56" s="9"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2">
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2">
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2">
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2">
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2">
       <c r="B61" s="9"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2">
       <c r="B62" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="A1:IV65536 E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.2" style="10" customWidth="1"/>
+    <col min="2" max="2" width="5.4" style="10" customWidth="1"/>
+    <col min="3" max="3" width="7.2" style="10" customWidth="1"/>
     <col min="4" max="4" width="6.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="33.8984375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="33.9" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.2" style="10" customWidth="1"/>
+    <col min="7" max="7" width="12.7" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.7" style="10" customWidth="1"/>
     <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="2:8">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:8">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -12011,7 +12554,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -12035,7 +12578,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -12059,7 +12602,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -12083,7 +12626,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -12097,336 +12640,337 @@
       <c r="G6" s="6"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7">
       <c r="B7" s="9">
         <v>4001</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>508</v>
-      </c>
       <c r="G7" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="9">
         <v>4002</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="9">
         <v>4003</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="G9" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="9">
         <v>4004</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>515</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="9">
         <v>4005</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>517</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="9">
         <v>4006</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>519</v>
-      </c>
       <c r="G12" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="9">
         <v>4007</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E13" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>521</v>
-      </c>
       <c r="G13" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="9">
         <v>4008</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E14" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>523</v>
-      </c>
       <c r="G14" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="9">
         <v>4009</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E15" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="G15" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="9">
         <v>4010</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>527</v>
-      </c>
       <c r="G16" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="9">
         <v>4011</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>529</v>
-      </c>
       <c r="G17" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="9">
         <v>4012</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>531</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="9">
         <v>4013</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>533</v>
-      </c>
       <c r="G19" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="9">
         <v>4014</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>535</v>
-      </c>
       <c r="G20" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="9">
         <v>4015</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E21" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="G21" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="K9 J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" customWidth="1"/>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="5.4" customWidth="1"/>
+    <col min="3" max="3" width="6.9" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="6" max="7" width="12.19921875" customWidth="1"/>
-    <col min="8" max="8" width="12.09765625" customWidth="1"/>
+    <col min="6" max="7" width="12.2" customWidth="1"/>
+    <col min="8" max="8" width="12.1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" s="10" customFormat="1" ht="33" spans="1:8">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -12438,7 +12982,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" s="10" customFormat="1" spans="1:9">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -12458,14 +13002,14 @@
         <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" s="10" customFormat="1" spans="1:9">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -12485,14 +13029,14 @@
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" s="10" customFormat="1" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -12519,7 +13063,7 @@
       </c>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" s="10" customFormat="1" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>31</v>
@@ -12536,79 +13080,80 @@
       <c r="H6" s="6"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="10" customFormat="1" spans="2:8">
       <c r="B7" s="9">
         <v>5001</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="23" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="10" customFormat="1" spans="2:8">
       <c r="B8" s="9">
         <v>5002</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="F14 G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7" defaultRowHeight="16.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" customWidth="1"/>
-    <col min="4" max="4" width="6.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.2" customWidth="1"/>
+    <col min="2" max="2" width="5.4" customWidth="1"/>
+    <col min="3" max="3" width="7.2" customWidth="1"/>
+    <col min="4" max="4" width="6.2" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.69921875" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" customWidth="1"/>
-    <col min="10" max="10" width="15.8984375" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" customWidth="1"/>
-    <col min="12" max="12" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.2" customWidth="1"/>
+    <col min="7" max="7" width="12.7" customWidth="1"/>
+    <col min="8" max="8" width="9.7" customWidth="1"/>
+    <col min="9" max="9" width="14.6" customWidth="1"/>
+    <col min="10" max="10" width="15.9" customWidth="1"/>
+    <col min="11" max="11" width="11.2" customWidth="1"/>
+    <col min="12" max="12" width="8.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" s="10" customFormat="1" ht="33" spans="1:13">
       <c r="A2" s="22" t="s">
         <v>8</v>
       </c>
@@ -12627,7 +13172,7 @@
       </c>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" s="10" customFormat="1" spans="1:14">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -12653,20 +13198,20 @@
         <v>58</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" s="10" customFormat="1" spans="1:14">
       <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
@@ -12692,20 +13237,20 @@
         <v>60</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" s="10" customFormat="1" spans="1:14">
       <c r="A5" s="13" t="s">
         <v>28</v>
       </c>
@@ -12731,10 +13276,10 @@
         <v>61</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>61</v>
@@ -12744,7 +13289,7 @@
       </c>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" s="10" customFormat="1" spans="1:14">
       <c r="A6" s="13"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -12763,18 +13308,18 @@
       <c r="L6" s="6"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" s="10" customFormat="1" spans="2:12">
       <c r="B7" s="9">
         <v>6001</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -12786,18 +13331,18 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" s="10" customFormat="1" spans="2:12">
       <c r="B8" s="9">
         <v>6002</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -12808,30 +13353,31 @@
       <c r="L8" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="10" customWidth="1"/>
-    <col min="3" max="4" width="8.59765625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="50.69921875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.2" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.2" style="10" customWidth="1"/>
+    <col min="3" max="4" width="8.6" style="10" customWidth="1"/>
+    <col min="5" max="5" width="50.7" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.7" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -12841,7 +13387,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" ht="33" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -12851,7 +13397,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -12871,7 +13417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -12891,7 +13437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -12911,7 +13457,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>31</v>
@@ -12921,86 +13467,86 @@
       <c r="E6" s="6"/>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" s="8"/>
       <c r="B7" s="8">
         <v>7001</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>7002</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" s="8"/>
       <c r="B9" s="8">
         <v>7003</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" s="8"/>
       <c r="B10" s="8">
         <v>7004</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -13008,8 +13554,8 @@
       <c r="E12" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>